--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H2">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I2">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J2">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>17.48696447250866</v>
+        <v>17.73297276883956</v>
       </c>
       <c r="R2">
-        <v>157.382680252578</v>
+        <v>159.596754919556</v>
       </c>
       <c r="S2">
-        <v>0.002663688143867663</v>
+        <v>0.002998141564495124</v>
       </c>
       <c r="T2">
-        <v>0.002771401255012069</v>
+        <v>0.003076297627294909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H3">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I3">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J3">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>26.94499925656045</v>
+        <v>31.44916904396623</v>
       </c>
       <c r="R3">
-        <v>242.5049933090441</v>
+        <v>283.042521395696</v>
       </c>
       <c r="S3">
-        <v>0.004104375872042161</v>
+        <v>0.005317160416849768</v>
       </c>
       <c r="T3">
-        <v>0.004270346913172291</v>
+        <v>0.005455769056407394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H4">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I4">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J4">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>11.68616819179255</v>
+        <v>18.06378211510267</v>
       </c>
       <c r="R4">
-        <v>105.175513726133</v>
+        <v>162.574039035924</v>
       </c>
       <c r="S4">
-        <v>0.001780086401425369</v>
+        <v>0.003054072020368699</v>
       </c>
       <c r="T4">
-        <v>0.001852068793525134</v>
+        <v>0.00313368608777822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H5">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I5">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J5">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>6.779775336026501</v>
+        <v>5.837657650286001</v>
       </c>
       <c r="R5">
-        <v>40.67865201615901</v>
+        <v>35.02594590171601</v>
       </c>
       <c r="S5">
-        <v>0.001032723958983913</v>
+        <v>0.0009869819498832253</v>
       </c>
       <c r="T5">
-        <v>0.0007163232133857094</v>
+        <v>0.0006751405084991847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H6">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I6">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J6">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>19.75144085953911</v>
+        <v>15.59674876505644</v>
       </c>
       <c r="R6">
-        <v>177.762967735852</v>
+        <v>140.370738885508</v>
       </c>
       <c r="S6">
-        <v>0.003008622732925929</v>
+        <v>0.002636966816171555</v>
       </c>
       <c r="T6">
-        <v>0.003130284165240859</v>
+        <v>0.002705707714375392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>118.760237</v>
       </c>
       <c r="I7">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J7">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>1314.732907677251</v>
+        <v>1142.282843368451</v>
       </c>
       <c r="R7">
-        <v>11832.59616909526</v>
+        <v>10280.54559031606</v>
       </c>
       <c r="S7">
-        <v>0.2002656586875396</v>
+        <v>0.1931275548525382</v>
       </c>
       <c r="T7">
-        <v>0.2083639179384508</v>
+        <v>0.1981620367076222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>118.760237</v>
       </c>
       <c r="I8">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J8">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
         <v>2025.821993041253</v>
@@ -948,10 +948,10 @@
         <v>18232.39793737128</v>
       </c>
       <c r="S8">
-        <v>0.3085817457302935</v>
+        <v>0.3425089069260886</v>
       </c>
       <c r="T8">
-        <v>0.3210600457713486</v>
+        <v>0.351437487202687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>118.760237</v>
       </c>
       <c r="I9">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J9">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>878.6081718502339</v>
+        <v>1163.592177431508</v>
       </c>
       <c r="R9">
-        <v>7907.473546652105</v>
+        <v>10472.32959688357</v>
       </c>
       <c r="S9">
-        <v>0.1338333004645812</v>
+        <v>0.1967303574395035</v>
       </c>
       <c r="T9">
-        <v>0.1392451956974942</v>
+        <v>0.2018587577634739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>118.760237</v>
       </c>
       <c r="I10">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J10">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>509.7279036018936</v>
+        <v>376.0371296062535</v>
       </c>
       <c r="R10">
-        <v>3058.367421611361</v>
+        <v>2256.222777637521</v>
       </c>
       <c r="S10">
-        <v>0.07764390300886223</v>
+        <v>0.06357718825616436</v>
       </c>
       <c r="T10">
-        <v>0.05385575653521068</v>
+        <v>0.04348968612171043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>118.760237</v>
       </c>
       <c r="I11">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J11">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>1484.984390109634</v>
+        <v>1004.676359620775</v>
       </c>
       <c r="R11">
-        <v>13364.85951098671</v>
+        <v>9042.087236586971</v>
       </c>
       <c r="S11">
-        <v>0.2261990821781618</v>
+        <v>0.169862210465787</v>
       </c>
       <c r="T11">
-        <v>0.23534602640116</v>
+        <v>0.1742902073775039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H12">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I12">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J12">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>3.165194338848667</v>
+        <v>5.160499639752445</v>
       </c>
       <c r="R12">
-        <v>28.486749049638</v>
+        <v>46.44449675777201</v>
       </c>
       <c r="S12">
-        <v>0.0004821357444102315</v>
+        <v>0.0008724937812283347</v>
       </c>
       <c r="T12">
-        <v>0.0005016321487261457</v>
+        <v>0.0008952380970957501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H13">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I13">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J13">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>4.877127716547112</v>
+        <v>9.152070983105778</v>
       </c>
       <c r="R13">
-        <v>43.89414944892401</v>
+        <v>82.368638847952</v>
       </c>
       <c r="S13">
-        <v>0.0007429046530699108</v>
+        <v>0.00154735501900028</v>
       </c>
       <c r="T13">
-        <v>0.0007729459218460773</v>
+        <v>0.001587691732073038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H14">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I14">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J14">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>2.115232375615888</v>
+        <v>5.256768975665333</v>
       </c>
       <c r="R14">
-        <v>19.037091380543</v>
+        <v>47.310920780988</v>
       </c>
       <c r="S14">
-        <v>0.0003222011121090118</v>
+        <v>0.0008887701890900754</v>
       </c>
       <c r="T14">
-        <v>0.0003352301464122008</v>
+        <v>0.0009119388011181728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H15">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I15">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J15">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>1.2271601824315</v>
+        <v>1.698825718282</v>
       </c>
       <c r="R15">
-        <v>7.362961094589002</v>
+        <v>10.192954309692</v>
       </c>
       <c r="S15">
-        <v>0.0001869262120197085</v>
+        <v>0.0002872231330419989</v>
       </c>
       <c r="T15">
-        <v>0.0001296567041900708</v>
+        <v>0.0001964736762588691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H16">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I16">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J16">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>3.575071527765778</v>
+        <v>4.538833811599555</v>
       </c>
       <c r="R16">
-        <v>32.175643749892</v>
+        <v>40.849504304396</v>
       </c>
       <c r="S16">
-        <v>0.0005445699656426652</v>
+        <v>0.0007673877630266596</v>
       </c>
       <c r="T16">
-        <v>0.0005665910589790662</v>
+        <v>0.0007873921573852021</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H17">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I17">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J17">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>49.364075902515</v>
+        <v>12.56366267947067</v>
       </c>
       <c r="R17">
-        <v>296.18445541509</v>
+        <v>75.381976076824</v>
       </c>
       <c r="S17">
-        <v>0.007519344133238755</v>
+        <v>0.002124158186708937</v>
       </c>
       <c r="T17">
-        <v>0.005215605491881949</v>
+        <v>0.001453020735057064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H18">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I18">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J18">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>76.06322930347001</v>
+        <v>22.28147285673067</v>
       </c>
       <c r="R18">
-        <v>456.3793758208201</v>
+        <v>133.688837140384</v>
       </c>
       <c r="S18">
-        <v>0.01158627172820431</v>
+        <v>0.003767163620040099</v>
       </c>
       <c r="T18">
-        <v>0.008036528370730472</v>
+        <v>0.002576911120141984</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H19">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I19">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J19">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>32.98896698372749</v>
+        <v>12.798038330516</v>
       </c>
       <c r="R19">
-        <v>197.933801902365</v>
+        <v>76.788229983096</v>
       </c>
       <c r="S19">
-        <v>0.005025018514284806</v>
+        <v>0.002163784446234886</v>
       </c>
       <c r="T19">
-        <v>0.003485478745953298</v>
+        <v>0.001480126897443756</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H20">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I20">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J20">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>19.13867582997375</v>
+        <v>4.135931550366001</v>
       </c>
       <c r="R20">
-        <v>76.55470331989501</v>
+        <v>16.543726201464</v>
       </c>
       <c r="S20">
-        <v>0.002915283780542513</v>
+        <v>0.0006992684447611953</v>
       </c>
       <c r="T20">
-        <v>0.001348075916087712</v>
+        <v>0.0003188875969679516</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H21">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I21">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J21">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>55.75648233901</v>
+        <v>11.05016586530533</v>
       </c>
       <c r="R21">
-        <v>334.53889403406</v>
+        <v>66.300995191832</v>
       </c>
       <c r="S21">
-        <v>0.008493062428512008</v>
+        <v>0.001868268902637308</v>
       </c>
       <c r="T21">
-        <v>0.005891000898500433</v>
+        <v>0.001277980835504643</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H22">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I22">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J22">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>4.263009624639333</v>
+        <v>4.984694620004222</v>
       </c>
       <c r="R22">
-        <v>38.367086621754</v>
+        <v>44.86225158003801</v>
       </c>
       <c r="S22">
-        <v>0.0006493595965267321</v>
+        <v>0.0008427701503501421</v>
       </c>
       <c r="T22">
-        <v>0.0006756181292886835</v>
+        <v>0.0008647396255665805</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H23">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I23">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J23">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>6.568709586343556</v>
+        <v>8.840283340000889</v>
       </c>
       <c r="R23">
-        <v>59.11838627709201</v>
+        <v>79.56255006000801</v>
       </c>
       <c r="S23">
-        <v>0.001000573534255204</v>
+        <v>0.001494640592362726</v>
       </c>
       <c r="T23">
-        <v>0.001041034309872463</v>
+        <v>0.001533603136821323</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H24">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I24">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J24">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>2.848879092485443</v>
+        <v>5.077684305944667</v>
       </c>
       <c r="R24">
-        <v>25.63991183236899</v>
+        <v>45.699158753502</v>
       </c>
       <c r="S24">
-        <v>0.0004339532726732473</v>
+        <v>0.0008584920626387175</v>
       </c>
       <c r="T24">
-        <v>0.0004515012942757547</v>
+        <v>0.0008808713793311923</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H25">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I25">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J25">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>1.6527881414645</v>
+        <v>1.640951072453</v>
       </c>
       <c r="R25">
-        <v>9.916728848786999</v>
+        <v>9.845706434718002</v>
       </c>
       <c r="S25">
-        <v>0.00025175965695277</v>
+        <v>0.0002774381757507284</v>
       </c>
       <c r="T25">
-        <v>0.0001746268060312341</v>
+        <v>0.0001897803207805315</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H26">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I26">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J26">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>4.815048524692888</v>
+        <v>4.384207356103778</v>
       </c>
       <c r="R26">
-        <v>43.335436722236</v>
+        <v>39.45786620493399</v>
       </c>
       <c r="S26">
-        <v>0.000733448488874979</v>
+        <v>0.0007412448252781129</v>
       </c>
       <c r="T26">
-        <v>0.0007631073732240218</v>
+        <v>0.0007605677211014818</v>
       </c>
     </row>
   </sheetData>
